--- a/houses.xlsx
+++ b/houses.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>ID</t>
   </si>
@@ -27,15 +27,6 @@
   </si>
   <si>
     <t>Price</t>
-  </si>
-  <si>
-    <t>faes</t>
-  </si>
-  <si>
-    <t>htyjt</t>
-  </si>
-  <si>
-    <t>thrybgdvs</t>
   </si>
 </sst>
 </file>
@@ -110,17 +101,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="3.03125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="9.89453125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="5.4765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="5.36328125" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="6.6328125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="8.84375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="5.578125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -140,57 +131,6 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C2" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="D2" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="E2" t="n" s="0">
-        <v>12345.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n" s="0">
-        <v>6.0</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C3" t="n" s="0">
-        <v>41.0</v>
-      </c>
-      <c r="D3" t="n" s="0">
-        <v>7.0</v>
-      </c>
-      <c r="E3" t="n" s="0">
-        <v>242232.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="C4" t="n" s="0">
-        <v>44.0</v>
-      </c>
-      <c r="D4" t="n" s="0">
-        <v>6.0</v>
-      </c>
-      <c r="E4" t="n" s="0">
-        <v>9999999.0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
